--- a/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
+++ b/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
@@ -4,16 +4,51 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Our Agent" sheetId="2" r:id="rId1"/>
     <sheet name="itot" sheetId="4" r:id="rId2"/>
     <sheet name="vt" sheetId="5" r:id="rId3"/>
     <sheet name="mdy" sheetId="6" r:id="rId4"/>
+    <sheet name="fm" sheetId="10" r:id="rId5"/>
+    <sheet name="Day change" sheetId="8" r:id="rId6"/>
+    <sheet name="Combined" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Our Agent</t>
+  </si>
+  <si>
+    <t>itot</t>
+  </si>
+  <si>
+    <t>mdy</t>
+  </si>
+  <si>
+    <t>Agent EO</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>itot EO</t>
+  </si>
+  <si>
+    <t>MDY EO</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FM EO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,6 +854,1379 @@
         <c:crossAx val="134559616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8918197725284336E-2"/>
+          <c:y val="1.5799403715312292E-2"/>
+          <c:w val="0.88387897346165067"/>
+          <c:h val="0.88716275514104392"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>fm!$E$1:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="194902656"/>
+        <c:axId val="199447296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="194902656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199447296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199447296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194902656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day change'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day change'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="202492928"/>
+        <c:axId val="202491392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="202492928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202491392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202491392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202492928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stock Change vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Change Percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5179316391035417E-2"/>
+          <c:y val="0.15476796419970279"/>
+          <c:w val="0.80643503326303445"/>
+          <c:h val="0.69462505906935179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agent EO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.953125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.71484375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0361328125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.777099609375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.83282470703125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6246185302734375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9684638977050781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2263479232788086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4197609424591064</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5648207068443298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1736155301332474</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6302116475999355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4726587356999516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6044940517749637</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7033705388312228</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5275279041234171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8956459280925628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1717344460694221</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1288008345520666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0966006259140499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5724504694355375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4293378520766531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3220033890574898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4915025417931176</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1186269063448382</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5889701797586286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6917276348189714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5187957261142286</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8890967945856714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4168225959392535</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0626169469544402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79696271021583009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>itot EO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.96153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2019230769230769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1418269230769231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3371394230769231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7240084134615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.01416015625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4721585787259617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2964266263521633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1550122774564304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3181822850153999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1617136368384733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0732083045519314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2472139207216406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1373335174643078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5741539842520771</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3921539497275193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0152693084494855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2133750582601905</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6408005244643737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7306003933482801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7691041411650565</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7979819520276386</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5792556947899596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1748263864770849</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3522736360116601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9661283039318223</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.426519304871944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.050658709423189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5283786474520071</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1366686009736209</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0832706814994464</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8028376265092003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3521282198819002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0140961649114253</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76057212368356897</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.57042909276267673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDY EO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Combined!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$J$2:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.953125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71484375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5361328125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.152099609375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.61407470703125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7105560302734375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0329170227050781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7746877670288086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8310158252716064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3732618689537048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7799464017152786</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.834959801286459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1262198509648442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0946648882236332</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3209986661677249</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4907489996257937</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3680617497193452</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5260463122895089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1445347342171317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1084010506628488</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5813007879971366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1859755909978524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8894816932483893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4171112699362922</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8128334524522192</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1096250893391644</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.0822188170043732</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.81166411275328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8587480845649598</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3940610634237198</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7955457975677898</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3466593481758422</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0099945111318815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FM EO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Combined!$M$2:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.494791666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2044270833333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7366536458333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.719156901041667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3727010091145835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1961924235026045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8138109842936201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8603582382202148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2286020119984951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9214515089988708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3577552984158201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2683164738118649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2845706886922326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3800946831858409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4517376790560474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0888032592920354</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1499357778023596</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4457851666851034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9176722083471609</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1882541562603706</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3078572838619449</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7308929628964587</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6315030555056773</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2236272916292581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91772046872194357</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.021623684874791</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0995510969894267</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82466332274206999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95183082538988584</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71387311904241435</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53540483928181071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.40155362946135803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="141417088"/>
+        <c:axId val="76643328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141417088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stock Change [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76643328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76643328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change Percentage [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.1365046535677356E-3"/>
+              <c:y val="4.0468000068321137E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141417088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -958,6 +2366,111 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1262,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,15 +3976,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1.2210526315789401</v>
       </c>
@@ -2485,13 +3998,17 @@
       <c r="E1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <f t="shared" ref="F1:F8" si="0">E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2.09133589415279</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">ROUND(A2,0)</f>
+        <f t="shared" ref="B2:B65" si="1">ROUND(A2,0)</f>
         <v>2</v>
       </c>
       <c r="D2">
@@ -2500,13 +4017,17 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>13.920972644376899</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D3">
@@ -2515,13 +4036,17 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>5.2050473186119897</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D4">
@@ -2530,13 +4055,17 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3.7053671682012101</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D5">
@@ -2545,13 +4074,17 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5.6328233657858098</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D6">
@@ -2560,13 +4093,17 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5.43071161048689</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D7">
@@ -2575,13 +4112,17 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3.1486146095717902</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D8">
@@ -2590,13 +4131,17 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>3.7912759885853999</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D9">
@@ -2605,13 +4150,17 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" ref="F9:F31" si="2">E17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.308959835221433</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10">
@@ -2620,13 +4169,17 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>19.758986079368398</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D11">
@@ -2635,13 +4188,17 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>19.358867610324701</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D12">
@@ -2650,13 +4207,17 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>4.1363051864552096</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D13">
@@ -2665,13 +4226,17 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2.7760891590678902</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D14">
@@ -2680,13 +4245,17 @@
       <c r="E14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>19.875776397515502</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D15">
@@ -2695,13 +4264,17 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>10.9493670886076</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D16">
@@ -2711,45 +4284,57 @@
         <f>COUNTIF($B:$B,D16-14)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2.2831050228310601</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E41" si="1">COUNTIF($B:$B,D17-14)</f>
+        <f t="shared" ref="E17:E41" si="3">COUNTIF($B:$B,D17-14)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>12.385512073272301</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.44426362896663</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D19">
@@ -2758,212 +4343,268 @@
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>16.230366492146601</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>17.866161616161602</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>18.218281612835099</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>0.77194530216143398</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>4.0475231574707999</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>9.2760681868496899</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1.8325697625989199</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>19.1854455240852</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>3.5744863013698698</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>19.954648526077101</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>7.04504862075808</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>9.2291220556745195</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>0.22094564737075001</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>E40</f>
         <v>1</v>
       </c>
     </row>
@@ -2972,14 +4613,14 @@
         <v>11.2826086956522</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -2988,14 +4629,14 @@
         <v>21.341206242091999</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3004,14 +4645,14 @@
         <v>7.2492952074103796</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3020,14 +4661,14 @@
         <v>1.2849275953497901</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3036,14 +4677,14 @@
         <v>3.9715719063545301</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3052,14 +4693,14 @@
         <v>3.0991735537190102</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3068,14 +4709,14 @@
         <v>3.5662749948464199</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3084,14 +4725,14 @@
         <v>3.7656903765690299</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3100,14 +4741,14 @@
         <v>24.286322965487901</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3116,7 +4757,7 @@
         <v>8.6498761354252593</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -3125,7 +4766,7 @@
         <v>6.0185185185185297</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -3134,7 +4775,7 @@
         <v>14.267729752412899</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -3143,7 +4784,7 @@
         <v>5.2812365822241301</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3152,7 +4793,7 @@
         <v>4.1133263378803804</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3161,7 +4802,7 @@
         <v>14.6029750680913</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -3170,7 +4811,7 @@
         <v>11.1577181208054</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -3179,7 +4820,7 @@
         <v>2.5496974935177201</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3188,7 +4829,7 @@
         <v>6.2850971922246099</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -3197,7 +4838,7 @@
         <v>18.980891719745198</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
@@ -3206,7 +4847,7 @@
         <v>4.3458159963014404</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3215,7 +4856,7 @@
         <v>2.2042467138523798</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3224,7 +4865,7 @@
         <v>14.647828797008099</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -3233,7 +4874,7 @@
         <v>7.5119409465914</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3242,7 +4883,7 @@
         <v>3.7393162393162398</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3251,7 +4892,7 @@
         <v>19.9087515553712</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -3260,7 +4901,7 @@
         <v>0.53851557012408502</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3269,7 +4910,7 @@
         <v>3.57965250157002</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3278,7 +4919,7 @@
         <v>3.7074554294975699</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3287,7 +4928,7 @@
         <v>1.6933638443936001</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3296,7 +4937,7 @@
         <v>3.2456861133935901</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -3305,7 +4946,7 @@
         <v>3.9762340036563102</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3314,7 +4955,7 @@
         <v>1.8895050318340401</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -3323,7 +4964,7 @@
         <v>8.0357142857142705</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -3332,7 +4973,7 @@
         <v>8.3784368911019609</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B100" si="2">ROUND(A66,0)</f>
+        <f t="shared" ref="B66:B100" si="4">ROUND(A66,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -3341,7 +4982,7 @@
         <v>4.6697517879680204</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3350,7 +4991,7 @@
         <v>1.0902747492368099</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3359,7 +5000,7 @@
         <v>10.190274841437599</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3368,7 +5009,7 @@
         <v>10.0416666666667</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3377,7 +5018,7 @@
         <v>24.456753302087801</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -3386,7 +5027,7 @@
         <v>1.52721015272102</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3395,7 +5036,7 @@
         <v>1.54862688416271</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3404,7 +5045,7 @@
         <v>11.310517529215399</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -3413,7 +5054,7 @@
         <v>20.034692107545499</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -3422,7 +5063,7 @@
         <v>21.1866189774879</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
     </row>
@@ -3431,7 +5072,7 @@
         <v>11.3287904599659</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -3440,7 +5081,7 @@
         <v>19.129116117850899</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -3449,7 +5090,7 @@
         <v>22.456575682382098</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -3458,7 +5099,7 @@
         <v>16.1477791614778</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -3467,7 +5108,7 @@
         <v>12.343849248359099</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -3476,7 +5117,7 @@
         <v>9.7341337907375607</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3485,7 +5126,7 @@
         <v>6.7663098363966903</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3494,7 +5135,7 @@
         <v>7.3755746552068704</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3503,7 +5144,7 @@
         <v>9.2405063291139093</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -3512,7 +5153,7 @@
         <v>2.8466483011937598</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3521,7 +5162,7 @@
         <v>19.407963310402302</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -3530,7 +5171,7 @@
         <v>17.888935989826201</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -3539,7 +5180,7 @@
         <v>6.11809848646344</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3548,7 +5189,7 @@
         <v>17.2368421052632</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -3557,7 +5198,7 @@
         <v>4.3036946812829804</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3566,7 +5207,7 @@
         <v>15.346121768140099</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -3575,7 +5216,7 @@
         <v>22.839774207555401</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -3584,7 +5225,7 @@
         <v>13.681122983448599</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -3593,7 +5234,7 @@
         <v>6.1626429479034197</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3602,7 +5243,7 @@
         <v>5.3306613226452804</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3611,7 +5252,7 @@
         <v>1.3825929283771501</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3620,7 +5261,7 @@
         <v>7.1984047856430697</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3629,7 +5270,7 @@
         <v>6.0855593492669202</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3638,7 +5279,7 @@
         <v>25.084317032040499</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
@@ -4855,8 +6496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6045,4 +7686,4175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>13.7785016286645</v>
+      </c>
+      <c r="B1">
+        <f>ROUND(A1,0)</f>
+        <v>14</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>COUNTIF($B:$B,D1)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F32" si="0">E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>21.302957633892898</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="1">ROUND(A2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E40" si="2">COUNTIF($B:$B,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>15.021601861083401</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>22.200392927308499</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>22.526478946008801</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>22.775616083009101</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>20.260078023407001</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>49.715447154471498</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>13.6558078315235</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>23.3564720293998</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>34.803082191780803</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>31.777625257378201</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>44.384615384615401</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>40.023291925465799</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>22.178060413354501</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>50.483933410762702</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>18.0555555555556</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>7.9358874120406604</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>15.2665589660743</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>10.8972544579677</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>17.5266175266175</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>15.091819699499201</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>7.2889182058047499</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>44.011976047904199</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>28.196377001837799</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>47.318731117824797</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>11.4002828854314</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>21.150772509323399</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>4.8898963730569998</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>10.871271585557301</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>12.7756653992395</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>18.543388429752099</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>21.1020408163265</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>E39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>52.897990726429697</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>16.049382716049401</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>24.5564412445359</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>46.476190476190503</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>24.9680552006133</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>13.601340033500801</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>16.633663366336599</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>49.211841599384897</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>22.314335060449</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>24.4730077120823</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>18.231469440832299</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>22.133119486768202</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>17.847105115233301</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>11.528326745717999</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47.983096427199399</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>2.7232679215058102</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>58.622242233228199</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>9.3217507517540898</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>73.848904783191799</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>46.804511278195498</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>29.823807477438798</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>22.195704057279201</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>18.161434977578502</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>21.7833876221498</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>4.7523157470801598</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>23.651618058330001</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>15.497661990648</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>21.349644830307799</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>41.6055576997298</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>13.09127248501</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>47.3074046372476</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>37.700729927007302</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>3.4098360655737698</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B100" si="3">ROUND(A66,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>45.517774343122099</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>6.4147348364560202</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>20.713731574864202</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>36.469730123997103</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>21.003262642740602</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>21.7890520694259</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>20.620581304006301</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>18.611561318206402</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>25.821972734562902</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>54.72</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>17.803227485684499</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>27.295492487479098</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>15.247148288973399</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>53.648915187376701</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>50.467653936087302</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>8.4122882572495001</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>9.3696275071633206</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>7.2284345047923404</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>49.291896144767897</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1.76423416198876</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>15.808122104115601</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>40.164815478323199</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>23.157344485101898</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>49.403446752099001</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>30.2876480541455</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>10.528031290743099</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>24.917382683410398</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>16.605042016806699</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>13.631773813530801</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>17.5468483816014</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>23.206860706860699</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>9.4642284247673896</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>16.627172195892602</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>22.321792260692501</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0.55714217546845701</v>
+      </c>
+      <c r="B1">
+        <f>ROUND(A1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>-0.18626920830457</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">ROUND(A2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-0.215999403725781</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">COUNTIF($B:$B,D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3.8093966711466899E-2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-0.206211564993352</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>-1.40415140463015</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.243740229904198</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>-1.5710652411272199</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>-0.18126203406695701</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF($B:$B,D9)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>-2.2268624903920999</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E18" si="2">COUNTIF($B:$B,D10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>-4.0836090400617302E-2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>-0.44194036722130697</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>-0.27729532980900801</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.232522256141102</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.82202035749112901</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.71012191237450495</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.242266172514017</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>-0.42140844122419102</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>-0.913688071046586</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1.28618577187484</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>-0.6267627332529</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>-0.63101291693184502</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>-1.0846844356687499</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.10900018901622099</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3.3134095232689202E-3</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>0.90882704396663705</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.29838816905067</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1.6129429460834499</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1.3682954515755199</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>-0.14070248370698801</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>-0.65759204110025105</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>-1.2906983514624799</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0.88193952176545298</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>-0.83571589333603402</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0.42657678491183898</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>-1.5666005834745</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0.243048942259772</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>-0.15307434272412099</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>0.295772294600678</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>0.44536057579423299</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>-0.38568658178167697</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1.19571351014621</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1.37149005054922</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>0.52604916480141095</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1.79154428542097</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>-0.72055533642914105</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>-3.53198722323891</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>-1.4919923154009</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>-0.93256729570087205</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>-0.213243233815886</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>-9.7097132307899306E-2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>-0.34815633252350398</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>-0.165879814451621</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>-3.1204130247828301</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0.540566433406517</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>-0.119758852054634</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1.69482228688368</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>-0.83085449008088197</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>-0.28217768901534301</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>-0.58996024276186199</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>-0.4690683097169</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>-0.54410467043391397</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0.33784064708341499</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>-0.34926084426166198</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>-1.7862420806680099</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1.13633973672121</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B100" si="3">ROUND(A66,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>-0.353795174700127</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1.3950274413082</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>-3.02861597100918</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0.115205963052237</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>-0.125487073058759</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>-0.62902184674670103</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0.40741739673473698</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>-0.20117641624579</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1.0846159073435899</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0.90131857810335303</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>3.3725090818603497E-2</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0.11860227441120499</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0.19940204124123601</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>-1.38199951807027</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>-0.330259677387163</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>1.3106987899879801</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>-0.72037808441246298</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>8.9949747898745505E-2</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0.282211315645302</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0.124006925674037</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>-0.77015508109864705</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>8.4813872482212102E-2</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0.11040430185616799</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0.31230264184932199</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>-0.23406276726476399</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>-1.0518622666551201</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0.55358746050532104</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>-0.14011823259822001</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0.75589017681146797</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>-0.23724180728932601</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.66907661168720201</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.37496722870722998</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>-1.0986884632171201</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1.00285057000795</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>B2/SUM(B:B)*100</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>E2/SUM(E:E)*100</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G2">
+        <f>F2</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f>H2/SUM(H:H)*100</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>K2/SUM(K:K)*100</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M2">
+        <f>L2</f>
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C37" si="0">B3/SUM(B:B)*100</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>$P$1*C3+(1-$P$1)*D2</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F37" si="1">E3/SUM(E:E)*100</f>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G3">
+        <f>$P$1*F3+(1-$P$1)*G2</f>
+        <v>1.2019230769230769</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I37" si="2">H3/SUM(H:H)*100</f>
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>$P$1*I3+(1-$P$1)*J2</f>
+        <v>3.25</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L37" si="3">K3/SUM(K:K)*100</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M3">
+        <f>$P$1*L3+(1-$P$1)*M2</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D37" si="4">$P$1*C4+(1-$P$1)*D3</f>
+        <v>3.25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="5">$P$1*F4+(1-$P$1)*G3</f>
+        <v>1.1418269230769231</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J37" si="6">$P$1*I4+(1-$P$1)*J3</f>
+        <v>2.9375</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M37" si="7">$P$1*L4+(1-$P$1)*M3</f>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>3.9375</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>1.3371394230769231</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>2.953125</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>3.953125</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>1.7240084134615383</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>2.71484375</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>2.494791666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>3.71484375</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2.01416015625</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>2.5361328125</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>3.2044270833333339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>3.0361328125</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>2.4721585787259617</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>4.152099609375</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>2.7366536458333339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>2.777099609375</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>3.2964266263521633</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>3.61407470703125</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>2.719156901041667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>2.83282470703125</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.7307692307692308</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>4.1550122774564304</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>3.7105560302734375</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>3.3727010091145835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>2.6246185302734375</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>4.3181822850153999</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>4.0329170227050781</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>4.1961924235026045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>2.9684638977050781</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>5.1617136368384733</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>3.7746877670288086</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>3.8138109842936201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>2.2263479232788086</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>5.0732083045519314</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>2.8310158252716064</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="7"/>
+        <v>3.8603582382202148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>2.4197609424591064</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>5.2472139207216406</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>2.3732618689537048</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>5.2286020119984951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>2.5648207068443298</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>5.1373335174643078</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>1.7799464017152786</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>4.9214515089988708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>3.1736155301332474</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>4.5741539842520771</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>1.834959801286459</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>4.3577552984158201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>2.6302116475999355</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>4.3921539497275193</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>2.1262198509648442</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>5.2683164738118649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>2.4726587356999516</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>4.0152693084494855</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>2.0946648882236332</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>6.2845706886922326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>2.6044940517749637</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>4.2133750582601905</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>2.3209986661677249</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>6.3800946831858409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>3.7033705388312228</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>3.6408005244643737</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>2.4907489996257937</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>5.4517376790560474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>3.5275279041234171</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>2.7306003933482801</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>3.3680617497193452</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>5.0888032592920354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>2.8956459280925628</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2.7691041411650565</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>3.5260463122895089</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>4.1499357778023596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>4.1717344460694221</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>2.7979819520276386</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>4.1445347342171317</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>3.4457851666851034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>4.1288008345520666</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>2.5792556947899596</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>4.1084010506628488</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>2.9176722083471609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>4.0966006259140499</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>2.1748263864770849</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>3.5813007879971366</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>2.1882541562603706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>3.5724504694355375</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>2.3522736360116601</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>4.1859755909978524</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>2.3078572838619449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>3.4293378520766531</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>2.9661283039318223</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>3.8894816932483893</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>1.7308929628964587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>3.3220033890574898</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4.8076923076923084</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>3.426519304871944</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>3.4171112699362922</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1.6315030555056773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>3.4915025417931176</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>3.050658709423189</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>2.8128334524522192</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1.2236272916292581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>3.1186269063448382</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>2.5283786474520071</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>3.1096250893391644</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0.91772046872194357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>2.5889701797586286</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>2.1366686009736209</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>3.0822188170043732</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>1.021623684874791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>2.6917276348189714</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>2.0832706814994464</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>2.81166411275328</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>1.0995510969894267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>2.5187957261142286</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>1.8028376265092003</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>2.8587480845649598</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0.82466332274206999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>1.8890967945856714</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>1.3521282198819002</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>2.3940610634237198</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0.95183082538988584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>1.4168225959392535</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>1.0140961649114253</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>1.7955457975677898</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0.71387311904241435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>1.0626169469544402</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0.76057212368356897</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>1.3466593481758422</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0.53540483928181071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>0.79696271021583009</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.57042909276267673</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>1.0099945111318815</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0.40155362946135803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
+++ b/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Our Agent" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="fm" sheetId="10" r:id="rId5"/>
     <sheet name="Day change" sheetId="8" r:id="rId6"/>
     <sheet name="Combined" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="13">
   <si>
     <t>Our Agent</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t>FM EO</t>
+  </si>
+  <si>
+    <t>x:</t>
+  </si>
+  <si>
+    <t>, y:</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>},</t>
   </si>
 </sst>
 </file>
@@ -239,24 +252,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="103654912"/>
-        <c:axId val="104084992"/>
+        <c:axId val="121729792"/>
+        <c:axId val="121731328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103654912"/>
+        <c:axId val="121729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104084992"/>
+        <c:crossAx val="121731328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104084992"/>
+        <c:axId val="121731328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +277,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103654912"/>
+        <c:crossAx val="121729792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -277,7 +290,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -293,10 +306,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5101135455894103E-2"/>
+          <c:x val="5.5101135455894096E-2"/>
           <c:y val="3.450666568776805E-2"/>
-          <c:w val="0.86828740157480311"/>
-          <c:h val="0.86454270139309508"/>
+          <c:w val="0.86828740157480322"/>
+          <c:h val="0.86454270139309519"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -438,17 +451,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141428608"/>
-        <c:axId val="141430144"/>
+        <c:axId val="122128640"/>
+        <c:axId val="122134528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141428608"/>
+        <c:axId val="122128640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141430144"/>
+        <c:crossAx val="122134528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +469,7 @@
         <c:tickLblSkip val="2"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141430144"/>
+        <c:axId val="122134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,20 +477,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141428608"/>
+        <c:crossAx val="122128640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -628,24 +640,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="143063296"/>
-        <c:axId val="143201024"/>
+        <c:axId val="122179584"/>
+        <c:axId val="122181120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143063296"/>
+        <c:axId val="122179584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143201024"/>
+        <c:crossAx val="122181120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143201024"/>
+        <c:axId val="122181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,20 +665,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143063296"/>
+        <c:crossAx val="122179584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -683,9 +694,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.8918197725284336E-2"/>
-          <c:y val="1.5799403715312285E-2"/>
+          <c:y val="1.5799403715312289E-2"/>
           <c:w val="0.88387897346165067"/>
-          <c:h val="0.88716275514104426"/>
+          <c:h val="0.88716275514104415"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -824,17 +835,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="134559616"/>
-        <c:axId val="134561152"/>
+        <c:axId val="122254848"/>
+        <c:axId val="122256384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="134559616"/>
+        <c:axId val="122254848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134561152"/>
+        <c:crossAx val="122256384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +854,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134561152"/>
+        <c:axId val="122256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,20 +862,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134559616"/>
+        <c:crossAx val="122254848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -881,9 +891,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.8918197725284336E-2"/>
-          <c:y val="1.5799403715312292E-2"/>
+          <c:y val="1.5799403715312296E-2"/>
           <c:w val="0.88387897346165067"/>
-          <c:h val="0.88716275514104392"/>
+          <c:h val="0.8871627551410437"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1022,17 +1032,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="194902656"/>
-        <c:axId val="199447296"/>
+        <c:axId val="122301440"/>
+        <c:axId val="122315520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194902656"/>
+        <c:axId val="122301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199447296"/>
+        <c:crossAx val="122315520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1051,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199447296"/>
+        <c:axId val="122315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,20 +1059,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194902656"/>
+        <c:crossAx val="122301440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1194,23 +1203,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="202492928"/>
-        <c:axId val="202491392"/>
+        <c:axId val="122446208"/>
+        <c:axId val="122447744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202492928"/>
+        <c:axId val="122446208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202491392"/>
+        <c:crossAx val="122447744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202491392"/>
+        <c:axId val="122447744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,20 +1227,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202492928"/>
+        <c:crossAx val="122446208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1252,11 +1260,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Stock Change vs.</a:t>
+              <a:t>Fund Profit vs.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Change Percentage</a:t>
+              <a:t> Profit Percentage</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1270,10 +1278,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5179316391035417E-2"/>
-          <c:y val="0.15476796419970279"/>
-          <c:w val="0.80643503326303445"/>
-          <c:h val="0.69462505906935179"/>
+          <c:x val="8.5179316391035431E-2"/>
+          <c:y val="0.15476796419970282"/>
+          <c:w val="0.80643503326303456"/>
+          <c:h val="0.6946250590693519"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2157,11 +2165,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141417088"/>
-        <c:axId val="76643328"/>
+        <c:axId val="122646528"/>
+        <c:axId val="122648832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141417088"/>
+        <c:axId val="122646528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,12 +2194,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76643328"/>
+        <c:crossAx val="122648832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76643328"/>
+        <c:axId val="122648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,14 +2225,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.1365046535677356E-3"/>
-              <c:y val="4.0468000068321137E-2"/>
+              <c:x val="4.1365046535677364E-3"/>
+              <c:y val="4.0468000068321144E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141417088"/>
+        <c:crossAx val="122646528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2237,7 +2245,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2775,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2809,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="1">COUNTIF($B$1:$B$300,D2)</f>
+        <f t="shared" ref="E2:E41" si="1">COUNTIF($B$1:$B$300,D2)</f>
         <v>2</v>
       </c>
     </row>
@@ -5327,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="1">COUNTIF($B:$B,D2)</f>
+        <f t="shared" ref="E2:E41" si="1">COUNTIF($B:$B,D2)</f>
         <v>0</v>
       </c>
     </row>
@@ -6530,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E50" si="1">COUNTIF($B:$B,D2)</f>
+        <f t="shared" ref="E2:E40" si="1">COUNTIF($B:$B,D2)</f>
         <v>4</v>
       </c>
     </row>
@@ -10045,8 +10053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11857,4 +11865,744 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2.4375</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2.494791666666667</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3.2044270833333339</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2.7366536458333339</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>2.719156901041667</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>3.3727010091145835</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>4.1961924235026045</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>3.8138109842936201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3.8603582382202148</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>5.2286020119984951</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>4.9214515089988708</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>4.3577552984158201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>5.2683164738118649</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>6.2845706886922326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>6.3800946831858409</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>5.4517376790560474</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5.0888032592920354</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4.1499357778023596</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>3.4457851666851034</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2.9176722083471609</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>2.1882541562603706</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>2.3078572838619449</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>1.7308929628964587</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1.6315030555056773</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1.2236272916292581</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0.91772046872194357</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>1.021623684874791</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1.0995510969894267</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0.82466332274206999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>0.95183082538988584</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>0.71387311904241435</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>0.53540483928181071</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>0.40155362946135803</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
+++ b/OptimalStoppingRule/InvestmentsRandomVectorsGenerator/nasdaq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Our Agent" sheetId="2" r:id="rId1"/>
@@ -111,8 +111,41 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profit Amount</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Profit Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11192241213750719"/>
+          <c:y val="0.1262218198084582"/>
+          <c:w val="0.75944033672620193"/>
+          <c:h val="0.7492583550259504"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -252,32 +285,75 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121729792"/>
-        <c:axId val="121731328"/>
+        <c:axId val="122864768"/>
+        <c:axId val="122867072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121729792"/>
+        <c:axId val="122864768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit Amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121731328"/>
+        <c:crossAx val="122867072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121731328"/>
+        <c:axId val="122867072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Profit Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8455284552845534E-2"/>
+              <c:y val="6.9358814747745884E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121729792"/>
+        <c:crossAx val="122864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -290,7 +366,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -308,8 +384,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.5101135455894096E-2"/>
           <c:y val="3.450666568776805E-2"/>
-          <c:w val="0.86828740157480322"/>
-          <c:h val="0.86454270139309519"/>
+          <c:w val="0.86828740157480344"/>
+          <c:h val="0.86454270139309541"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -451,17 +527,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122128640"/>
-        <c:axId val="122134528"/>
+        <c:axId val="123187584"/>
+        <c:axId val="123189120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122128640"/>
+        <c:axId val="123187584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122134528"/>
+        <c:crossAx val="123189120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -469,7 +545,7 @@
         <c:tickLblSkip val="2"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122134528"/>
+        <c:axId val="123189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +553,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122128640"/>
+        <c:crossAx val="123187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -489,7 +565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -640,24 +716,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122179584"/>
-        <c:axId val="122181120"/>
+        <c:axId val="123570048"/>
+        <c:axId val="123571584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122179584"/>
+        <c:axId val="123570048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122181120"/>
+        <c:crossAx val="123571584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122181120"/>
+        <c:axId val="123571584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +741,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122179584"/>
+        <c:crossAx val="123570048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,210 +753,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.8918197725284336E-2"/>
-          <c:y val="1.5799403715312289E-2"/>
-          <c:w val="0.88387897346165067"/>
-          <c:h val="0.88716275514104415"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>mdy!$E$1:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="122254848"/>
-        <c:axId val="122256384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="122254848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122256384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
-        <c:tickMarkSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="122256384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122254848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -904,57 +783,57 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>fm!$E$1:$E$41</c:f>
+              <c:f>mdy!$E$1:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -963,46 +842,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1</c:v>
@@ -1014,16 +893,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -1032,17 +911,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122301440"/>
-        <c:axId val="122315520"/>
+        <c:axId val="123587968"/>
+        <c:axId val="123651200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122301440"/>
+        <c:axId val="123587968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122315520"/>
+        <c:crossAx val="123651200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +930,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122315520"/>
+        <c:axId val="123651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +938,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122301440"/>
+        <c:crossAx val="123587968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1072,6 +951,203 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8918197725284336E-2"/>
+          <c:y val="1.5799403715312306E-2"/>
+          <c:w val="0.88387897346165067"/>
+          <c:h val="0.88716275514104337"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>fm!$E$1:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="123692160"/>
+        <c:axId val="123693696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123692160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123693696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123693696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123692160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1203,23 +1279,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="122446208"/>
-        <c:axId val="122447744"/>
+        <c:axId val="123828480"/>
+        <c:axId val="123830272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122446208"/>
+        <c:axId val="123828480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122447744"/>
+        <c:crossAx val="123830272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122447744"/>
+        <c:axId val="123830272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1303,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122446208"/>
+        <c:crossAx val="123828480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1239,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1270,7 +1346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -1278,10 +1353,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5179316391035431E-2"/>
-          <c:y val="0.15476796419970282"/>
-          <c:w val="0.80643503326303456"/>
-          <c:h val="0.6946250590693519"/>
+          <c:x val="8.5179316391035445E-2"/>
+          <c:y val="0.15476796419970293"/>
+          <c:w val="0.80643503326303489"/>
+          <c:h val="0.69462505906935212"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2165,11 +2240,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="122646528"/>
-        <c:axId val="122648832"/>
+        <c:axId val="123922304"/>
+        <c:axId val="124002304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122646528"/>
+        <c:axId val="123922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,16 +2265,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122648832"/>
+        <c:crossAx val="124002304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122648832"/>
+        <c:axId val="124002304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,26 +2300,25 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.1365046535677364E-3"/>
-              <c:y val="4.0468000068321144E-2"/>
+              <c:y val="4.0468000068321158E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122646528"/>
+        <c:crossAx val="123922304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2256,15 +2329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2781,15 +2854,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>26.760000049779102</v>
       </c>
@@ -2804,8 +2877,16 @@
         <f>COUNTIF($B$1:$B$300,D1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <f>D1*E1</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>SUM(F:F)/SUM(E:E)</f>
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>3.99116832331356</v>
       </c>
@@ -2820,8 +2901,12 @@
         <f t="shared" ref="E2:E41" si="1">COUNTIF($B$1:$B$300,D2)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f t="shared" ref="F2:F41" si="2">D2*E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1.3644324458747601</v>
       </c>
@@ -2836,8 +2921,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>14.041737954825701</v>
       </c>
@@ -2852,8 +2941,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>20.9635895549835</v>
       </c>
@@ -2868,8 +2961,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13.346510378283</v>
       </c>
@@ -2884,8 +2981,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2.97335999391969</v>
       </c>
@@ -2900,8 +3001,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>17.552728579635399</v>
       </c>
@@ -2916,8 +3021,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>26.3034011797365</v>
       </c>
@@ -2932,8 +3041,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1.5359512522901599</v>
       </c>
@@ -2948,8 +3061,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1.6466788777608301</v>
       </c>
@@ -2964,8 +3081,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>29.951293689370999</v>
       </c>
@@ -2980,8 +3101,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>24.7323502471524</v>
       </c>
@@ -2996,8 +3121,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>23.1177783519489</v>
       </c>
@@ -3012,8 +3141,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>30.629846240384399</v>
       </c>
@@ -3028,8 +3161,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>21.8667609015084</v>
       </c>
@@ -3044,8 +3181,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>14.0504466962024</v>
       </c>
@@ -3060,8 +3201,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5.89908161676113</v>
       </c>
@@ -3076,8 +3221,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>7.1178535320576197E-3</v>
       </c>
@@ -3092,8 +3241,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19.502977735294799</v>
       </c>
@@ -3108,8 +3261,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>22.167376984083099</v>
       </c>
@@ -3124,8 +3281,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>22.781523558793801</v>
       </c>
@@ -3140,8 +3301,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22.324763469734201</v>
       </c>
@@ -3156,8 +3321,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>30.630544931567702</v>
       </c>
@@ -3172,8 +3341,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>18.131366140108899</v>
       </c>
@@ -3188,8 +3361,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>18.0164125847826</v>
       </c>
@@ -3204,8 +3381,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>19.421962452762301</v>
       </c>
@@ -3220,8 +3401,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>25.2114094419872</v>
       </c>
@@ -3236,8 +3421,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>23.670559599746401</v>
       </c>
@@ -3252,8 +3441,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>9.0116749387160997</v>
       </c>
@@ -3268,8 +3461,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2.1855824663558199</v>
       </c>
@@ -3284,8 +3481,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>0.97331556505013705</v>
       </c>
@@ -3300,8 +3501,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>26.2180545771418</v>
       </c>
@@ -3316,8 +3521,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>12.1321907500697</v>
       </c>
@@ -3332,8 +3541,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>6.71916836125044</v>
       </c>
@@ -3348,8 +3561,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>14.279098933896099</v>
       </c>
@@ -3364,8 +3581,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>27.226977340643899</v>
       </c>
@@ -3380,8 +3601,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>24.339845799095901</v>
       </c>
@@ -3396,8 +3621,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>17.156907905854599</v>
       </c>
@@ -3412,8 +3641,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>4.8616163631545897</v>
       </c>
@@ -3428,8 +3661,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>20.7371064260008</v>
       </c>
@@ -3444,8 +3681,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2.5531906543545499</v>
       </c>
@@ -3454,7 +3695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>28.353276544843698</v>
       </c>
@@ -3463,7 +3704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>17.354349561218498</v>
       </c>
@@ -3472,7 +3713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>14.2986024029553</v>
       </c>
@@ -3481,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>16.744055433558099</v>
       </c>
@@ -3490,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>11.741202691286</v>
       </c>
@@ -3499,7 +3740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2.99286754262554</v>
       </c>
@@ -3666,7 +3907,7 @@
         <v>26.5389163702852</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B100" si="2">ROUND(A66,0)</f>
+        <f t="shared" ref="B66:B100" si="3">ROUND(A66,0)</f>
         <v>27</v>
       </c>
     </row>
@@ -3675,7 +3916,7 @@
         <v>27.673279954924499</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -3684,7 +3925,7 @@
         <v>8.6133945270304508</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3693,7 +3934,7 @@
         <v>29.9768232792925</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -3702,7 +3943,7 @@
         <v>9.7400789283734195</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3711,7 +3952,7 @@
         <v>24.5609521157985</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -3720,7 +3961,7 @@
         <v>7.9637233602669104</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3729,7 +3970,7 @@
         <v>21.489349185245601</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -3738,7 +3979,7 @@
         <v>23.415250046160299</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -3747,7 +3988,7 @@
         <v>17.979134473420402</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -3756,7 +3997,7 @@
         <v>14.768582439844799</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -3765,7 +4006,7 @@
         <v>17.8705721754061</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -3774,7 +4015,7 @@
         <v>8.4186080104121999</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3783,7 +4024,7 @@
         <v>13.483136179006999</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -3792,7 +4033,7 @@
         <v>17.611259748177801</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -3801,7 +4042,7 @@
         <v>7.9495682123328502</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3810,7 +4051,7 @@
         <v>3.5043677495654602</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3819,7 +4060,7 @@
         <v>1.6996866005323099</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3828,7 +4069,7 @@
         <v>21.392246301735099</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -3837,7 +4078,7 @@
         <v>9.6723500632461192</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3846,7 +4087,7 @@
         <v>22.160298395010301</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -3855,7 +4096,7 @@
         <v>21.388470280913602</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -3864,7 +4105,7 @@
         <v>4.3571452577403003</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3873,7 +4114,7 @@
         <v>2.4566215344049902</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3882,7 +4123,7 @@
         <v>20.673294387699901</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -3891,7 +4132,7 @@
         <v>3.6957765974650201</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3900,7 +4141,7 @@
         <v>13.8258530755878</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -3909,7 +4150,7 @@
         <v>20.888129335756201</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -3918,7 +4159,7 @@
         <v>13.185206389899101</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -3927,7 +4168,7 @@
         <v>10.3539131642959</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3936,7 +4177,7 @@
         <v>28.8576183990502</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -3945,7 +4186,7 @@
         <v>7.4319901192150502</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3954,7 +4195,7 @@
         <v>10.2832098515479</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3963,7 +4204,7 @@
         <v>26.457936543062001</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -3972,7 +4213,7 @@
         <v>17.816641593863</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -11871,8 +12112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
